--- a/data/trans_bre/P16A10-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A10-Habitat-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.754470536840718</v>
+        <v>-2.760503037549949</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.70117329369992</v>
+        <v>-1.428744652353706</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.491378602447455</v>
+        <v>-2.45140980277577</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.067954243049996</v>
+        <v>-2.265099097943973</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.4224350716288779</v>
+        <v>-0.4032737619757663</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.2928464959685884</v>
+        <v>-0.2627176757191583</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.32743320519021</v>
+        <v>-0.3092187140587807</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.2587617344974976</v>
+        <v>-0.2704059033714475</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.09559217551505</v>
+        <v>1.941436217221127</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.283294910234208</v>
+        <v>3.413744013849227</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.989056316171228</v>
+        <v>3.140599658839883</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.514805930923888</v>
+        <v>2.285975570287607</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.4719736060349206</v>
+        <v>0.4210360707339277</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9275017291953258</v>
+        <v>0.9658879337626527</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5288984369813758</v>
+        <v>0.6168686232725596</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.461783870816552</v>
+        <v>0.4131394588256777</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-0.6196726991405208</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.5866934641179613</v>
+        <v>0.5866934641179627</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.1038747209380639</v>
@@ -749,7 +749,7 @@
         <v>-0.1084523252095636</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.1438752505611349</v>
+        <v>0.1438752505611353</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.874456597416172</v>
+        <v>-2.649196742237435</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.137519083024796</v>
+        <v>-1.962386085970157</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-2.537316607160818</v>
+        <v>-2.767994249821419</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.9336141199238266</v>
+        <v>-0.8695093287627716</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4095546056186368</v>
+        <v>-0.3780409381309309</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3631810557466246</v>
+        <v>-0.3226179890219781</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3842219309459884</v>
+        <v>-0.4169609025549811</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1813019663894274</v>
+        <v>-0.1820537155125045</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.511767023387345</v>
+        <v>1.704402383145815</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.909506914961366</v>
+        <v>2.041406925613277</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.514057225062623</v>
+        <v>1.414086895029554</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.037501153508895</v>
+        <v>1.9520153804422</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3288480271177429</v>
+        <v>0.3577829821875993</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.492438825297417</v>
+        <v>0.5285420270871659</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3419283445379426</v>
+        <v>0.2966600244954327</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.6206383063238821</v>
+        <v>0.5819467963764471</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-0.4997256680587016</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-2.021641199865895</v>
+        <v>-2.021641199865897</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.09313908393016578</v>
@@ -849,7 +849,7 @@
         <v>-0.08068599183239515</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.3166780642031503</v>
+        <v>-0.3166780642031504</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.998156597352146</v>
+        <v>-2.834924292594523</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.506376767292791</v>
+        <v>-3.360125468022086</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.877029669597636</v>
+        <v>-2.944143819627756</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.080160685011965</v>
+        <v>-4.206953527757388</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.4466803321820573</v>
+        <v>-0.4365266449924044</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.5784884492198927</v>
+        <v>-0.5688499461855341</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.3934951388278721</v>
+        <v>-0.4122678025884103</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.5279941514455728</v>
+        <v>-0.5389402928897912</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.858846219543431</v>
+        <v>1.792056190319914</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9436483520061705</v>
+        <v>0.8418081379831247</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.263811034922184</v>
+        <v>1.94271032607891</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.06686393748305144</v>
+        <v>-0.2664104341411603</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.4622084384446921</v>
+        <v>0.4587353798025009</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2643508371734659</v>
+        <v>0.2513904751122466</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4766489188125743</v>
+        <v>0.4007257612438718</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.04665307781996276</v>
+        <v>-0.01969565261338563</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-1.17795430168064</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-0.7610122976365721</v>
+        <v>-0.7610122976365707</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1852978959076221</v>
@@ -949,7 +949,7 @@
         <v>-0.2047034405199201</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.1192334588596547</v>
+        <v>-0.1192334588596545</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.32693962324888</v>
+        <v>-1.025540806421547</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-3.716120569893814</v>
+        <v>-3.607534617820507</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-3.407705924341346</v>
+        <v>-3.25790124758153</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-2.583428589981429</v>
+        <v>-2.411225454254053</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2372902702807141</v>
+        <v>-0.1997533369392447</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4848202812386426</v>
+        <v>-0.4605254750890577</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.490529154938345</v>
+        <v>-0.4791197061702536</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.341408006490691</v>
+        <v>-0.3295067482090832</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.660210779054605</v>
+        <v>2.870565097110668</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7422725373544511</v>
+        <v>0.5947229852493281</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7377193399224109</v>
+        <v>1.009877272669912</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.8231028832472216</v>
+        <v>1.049055287467151</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.7155278663132729</v>
+        <v>0.7222033010722657</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1513867160019214</v>
+        <v>0.1236151924874051</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1597862844700101</v>
+        <v>0.240429556945601</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1535103054747486</v>
+        <v>0.2033401341516641</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-0.5953590561482327</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-0.4545093717036646</v>
+        <v>-0.4545093717036659</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.02173103653289409</v>
@@ -1049,7 +1049,7 @@
         <v>-0.09950053143951215</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.07859759416490993</v>
+        <v>-0.07859759416491016</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.292465212399342</v>
+        <v>-1.152316306137143</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.568350449874599</v>
+        <v>-1.57155672387683</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.664925701464807</v>
+        <v>-1.782880033870968</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.376878866913052</v>
+        <v>-1.339568351675302</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.2117236443949928</v>
+        <v>-0.1952455834398235</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.2673566855544878</v>
+        <v>-0.2560139555682331</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.2518679517315889</v>
+        <v>-0.2741096695318161</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.2194445414180947</v>
+        <v>-0.2115865968964917</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9639823668222025</v>
+        <v>1.028164217646398</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5312706113178727</v>
+        <v>0.664742418935293</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4589278604347778</v>
+        <v>0.4659171060602457</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.5418725420032124</v>
+        <v>0.585119128317701</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.2079160524783315</v>
+        <v>0.2117839691920952</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1073192933219721</v>
+        <v>0.1437650220822528</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.08900102158032649</v>
+        <v>0.09487923807465848</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.1037359580234681</v>
+        <v>0.1140488360999135</v>
       </c>
     </row>
     <row r="19">
